--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_CAROLINA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/SOUTH_CAROLINA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1100"/>
+  <dimension ref="A1:D1094"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="18">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C40">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C58">
@@ -1148,14 +1148,14 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
         <v>7</v>
       </c>
       <c r="D59">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="60">
@@ -1181,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="D61">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="62">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C63">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C71">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C97">
@@ -1660,7 +1660,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C98">
@@ -1821,7 +1821,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C110">
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="113">
@@ -1956,7 +1956,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2111,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="D131">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="132">
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="D132">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="133">
@@ -2369,12 +2369,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C151">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C156">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C158">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C163">
@@ -2602,7 +2602,7 @@
         <v>7</v>
       </c>
       <c r="D168">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C170">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C175">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C176">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C189">
@@ -2972,7 +2972,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C197">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C199">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C200">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C207">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C215">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C221">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3452,13 +3452,13 @@
         <v>7</v>
       </c>
       <c r="D233">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C234">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C235">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C242">
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="D250">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="251">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C254">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C256">
@@ -3770,7 +3770,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C258">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C260">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C261">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C264">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C270">
@@ -3962,7 +3962,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C272">
@@ -3975,7 +3975,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C273">
@@ -4014,7 +4014,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C276">
@@ -4040,7 +4040,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C278">
@@ -4053,7 +4053,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C279">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C282">
@@ -4105,20 +4105,20 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C283">
         <v>7</v>
       </c>
       <c r="D283">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C284">
@@ -4131,7 +4131,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C285">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C287">
@@ -4170,7 +4170,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C288">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C292">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C298">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C301">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C303">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C306">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C316">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C318">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C320">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C323">
@@ -4780,7 +4780,7 @@
         <v>7</v>
       </c>
       <c r="D334">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="335">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C338">
@@ -4890,7 +4890,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C343">
@@ -4929,7 +4929,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C346">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C349">
@@ -5007,7 +5007,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C352">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C357">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C358">
@@ -5098,7 +5098,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C359">
@@ -5118,13 +5118,13 @@
         <v>7</v>
       </c>
       <c r="D360">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C363">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C366">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C372">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C375">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C377">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C378">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C380">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C389">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C391">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C396">
@@ -5625,7 +5625,7 @@
         <v>652</v>
       </c>
       <c r="D399">
-        <v>0.09048015542603387</v>
+        <v>0.09048015542603388</v>
       </c>
     </row>
     <row r="400">
@@ -5701,7 +5701,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C405">
@@ -5714,7 +5714,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C406">
@@ -5727,7 +5727,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C407">
@@ -5870,14 +5870,14 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C418">
         <v>7</v>
       </c>
       <c r="D418">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="419">
@@ -5909,7 +5909,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C421">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C423">
@@ -5974,7 +5974,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C426">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C430">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C431">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C434">
@@ -6117,7 +6117,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C437">
@@ -6130,7 +6130,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C438">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C440">
@@ -6208,7 +6208,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C444">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C445">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C447">
@@ -6363,7 +6363,7 @@
         <v>7</v>
       </c>
       <c r="D455">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="456">
@@ -6473,7 +6473,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C464">
@@ -6870,7 +6870,7 @@
         <v>7</v>
       </c>
       <c r="D494">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="495">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C498">
@@ -7167,7 +7167,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C517">
@@ -7271,7 +7271,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C525">
@@ -7336,7 +7336,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C530">
@@ -7458,7 +7458,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C539">
@@ -7523,7 +7523,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C544">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C552">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C555">
@@ -7728,7 +7728,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C559">
@@ -7780,7 +7780,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C563">
@@ -7819,7 +7819,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C566">
@@ -7832,7 +7832,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C567">
@@ -7845,7 +7845,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C568">
@@ -7858,7 +7858,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C569">
@@ -7871,14 +7871,14 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C570">
         <v>7</v>
       </c>
       <c r="D570">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="571">
@@ -7962,7 +7962,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C577">
@@ -7975,7 +7975,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C578">
@@ -8001,7 +8001,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C580">
@@ -8014,7 +8014,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8027,7 +8027,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C582">
@@ -8131,7 +8131,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C590">
@@ -8157,7 +8157,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C592">
@@ -8248,7 +8248,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C599">
@@ -8430,7 +8430,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C613">
@@ -8619,7 +8619,7 @@
         <v>7</v>
       </c>
       <c r="D627">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="628">
@@ -8671,7 +8671,7 @@
         <v>7</v>
       </c>
       <c r="D631">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="632">
@@ -8749,7 +8749,7 @@
         <v>7</v>
       </c>
       <c r="D637">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="638">
@@ -8807,7 +8807,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C642">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C652">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C663">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C667">
@@ -9503,7 +9503,7 @@
         <v>7</v>
       </c>
       <c r="D695">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="696">
@@ -9730,7 +9730,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C713">
@@ -9743,7 +9743,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C714">
@@ -9756,7 +9756,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C715">
@@ -9769,7 +9769,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C716">
@@ -9782,7 +9782,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C717">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C719">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C721">
@@ -9969,7 +9969,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C731">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C732">
@@ -10099,7 +10099,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C741">
@@ -10171,7 +10171,7 @@
         <v>7</v>
       </c>
       <c r="D746">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="747">
@@ -10190,7 +10190,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C748">
@@ -10203,7 +10203,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C749">
@@ -10242,7 +10242,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C752">
@@ -10320,7 +10320,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C758">
@@ -10385,7 +10385,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C763">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C773">
@@ -10528,7 +10528,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C774">
@@ -10658,7 +10658,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C784">
@@ -10684,7 +10684,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C786">
@@ -10736,7 +10736,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C790">
@@ -10866,7 +10866,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C800">
@@ -10905,7 +10905,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C803">
@@ -11001,14 +11001,14 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C810">
         <v>7</v>
       </c>
       <c r="D810">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="811">
@@ -11027,7 +11027,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C812">
@@ -11079,7 +11079,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C816">
@@ -11118,7 +11118,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C819">
@@ -11157,7 +11157,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C822">
@@ -11190,7 +11190,7 @@
         <v>7</v>
       </c>
       <c r="D824">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="825">
@@ -11297,7 +11297,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C832">
@@ -11310,7 +11310,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C833">
@@ -11362,14 +11362,14 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C837">
         <v>7</v>
       </c>
       <c r="D837">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="838">
@@ -11479,7 +11479,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C846">
@@ -11544,14 +11544,14 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C851">
         <v>7</v>
       </c>
       <c r="D851">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="852">
@@ -11583,7 +11583,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C854">
@@ -11700,7 +11700,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C863">
@@ -11713,7 +11713,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C864">
@@ -11726,7 +11726,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C865">
@@ -11739,7 +11739,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C866">
@@ -12305,7 +12305,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C908">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C915">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C923">
@@ -12518,7 +12518,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C924">
@@ -12608,7 +12608,7 @@
         <v>7</v>
       </c>
       <c r="D930">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="931">
@@ -12653,7 +12653,7 @@
     <row r="934">
       <c r="B934" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C934">
@@ -12692,7 +12692,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C937">
@@ -12809,7 +12809,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C946">
@@ -12835,7 +12835,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C948">
@@ -12861,7 +12861,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C950">
@@ -13011,7 +13011,7 @@
         <v>7</v>
       </c>
       <c r="D961">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="962">
@@ -13056,7 +13056,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C965">
@@ -13069,7 +13069,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C966">
@@ -13277,7 +13277,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C982">
@@ -13290,7 +13290,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C983">
@@ -13329,7 +13329,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C986">
@@ -13342,7 +13342,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C987">
@@ -13355,7 +13355,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C988">
@@ -13453,13 +13453,13 @@
         <v>7</v>
       </c>
       <c r="D995">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C996">
@@ -13498,7 +13498,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C999">
@@ -13524,7 +13524,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1001">
@@ -13550,7 +13550,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1003">
@@ -13687,13 +13687,13 @@
         <v>7</v>
       </c>
       <c r="D1013">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1014">
@@ -13745,7 +13745,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1018">
@@ -13758,7 +13758,7 @@
     <row r="1019">
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1019">
@@ -13810,7 +13810,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1023">
@@ -13908,13 +13908,13 @@
         <v>7</v>
       </c>
       <c r="D1030">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1031">
@@ -13953,7 +13953,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1034">
@@ -14116,7 +14116,7 @@
         <v>7</v>
       </c>
       <c r="D1046">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="1047">
@@ -14220,7 +14220,7 @@
         <v>7</v>
       </c>
       <c r="D1054">
-        <v>0.0009714127116291979</v>
+        <v>0.000971412711629198</v>
       </c>
     </row>
     <row r="1055">
@@ -14239,7 +14239,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1056">
@@ -14561,7 +14561,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1080">
@@ -14574,7 +14574,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1081">
@@ -14652,7 +14652,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1087">
@@ -14751,41 +14751,6 @@
       </c>
       <c r="D1094">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1096">
-      <c r="B1096" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1097">
-      <c r="B1097" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1098">
-      <c r="B1098" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1099">
-      <c r="B1099" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1100">
-      <c r="B1100" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
